--- a/Score Output.xlsx
+++ b/Score Output.xlsx
@@ -403,16 +403,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328125</v>
+        <v>1.334375</v>
       </c>
       <c r="E2" t="n">
-        <v>-43</v>
+        <v>21.39999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -422,16 +422,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.6777777777777777</v>
       </c>
       <c r="E3" t="n">
-        <v>-5</v>
+        <v>-1.933333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -441,16 +441,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>8.133333333333333</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>6.133333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -460,16 +460,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>32.53333333333333</v>
       </c>
       <c r="C5" t="n">
         <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.32</v>
+        <v>1.301333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>-17</v>
+        <v>7.533333333333331</v>
       </c>
     </row>
     <row r="6">
@@ -479,16 +479,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>32.53333333333333</v>
       </c>
       <c r="C6" t="n">
         <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>16.53333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -515,16 +515,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="C8" t="n">
         <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>0.2666666666666657</v>
       </c>
     </row>
     <row r="9">
@@ -534,16 +534,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>146.4</v>
       </c>
       <c r="C9" t="n">
         <v>88</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4090909090909091</v>
+        <v>1.663636363636363</v>
       </c>
       <c r="E9" t="n">
-        <v>-52</v>
+        <v>58.39999999999998</v>
       </c>
     </row>
     <row r="10">
@@ -570,16 +570,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0.25</v>
+        <v>1.016666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>-3</v>
+        <v>0.06666666666666643</v>
       </c>
     </row>
     <row r="12">
@@ -589,16 +589,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.066666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>130.1333333333333</v>
       </c>
       <c r="C15" t="n">
         <v>85</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3764705882352941</v>
+        <v>1.530980392156863</v>
       </c>
       <c r="E15" t="n">
-        <v>-53</v>
+        <v>45.13333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -661,16 +661,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="C16" t="n">
         <v>13</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3076923076923077</v>
+        <v>1.251282051282051</v>
       </c>
       <c r="E16" t="n">
-        <v>-9</v>
+        <v>3.266666666666666</v>
       </c>
     </row>
     <row r="17">
@@ -697,16 +697,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>2.033333333333333</v>
       </c>
       <c r="E18" t="n">
-        <v>-1</v>
+        <v>2.066666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -716,16 +716,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>12</v>
+        <v>48.8</v>
       </c>
       <c r="C19" t="n">
         <v>33</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3636363636363636</v>
+        <v>1.478787878787879</v>
       </c>
       <c r="E19" t="n">
-        <v>-21</v>
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>21</v>
+        <v>85.39999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4751,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
     </row>
     <row r="4">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>8.133333333333333</v>
       </c>
     </row>
     <row r="5">
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>32.53333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>8</v>
+        <v>32.53333333333333</v>
       </c>
     </row>
     <row r="7">
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>16.26666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -5081,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>36</v>
+        <v>146.4</v>
       </c>
     </row>
     <row r="10">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
     </row>
     <row r="12">
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
     </row>
     <row r="13">
@@ -5411,7 +5411,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>32</v>
+        <v>130.1333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>16.26666666666667</v>
       </c>
     </row>
     <row r="17">
@@ -5576,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>4.066666666666666</v>
       </c>
     </row>
     <row r="19">
@@ -5631,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>12</v>
+        <v>48.8</v>
       </c>
     </row>
   </sheetData>
